--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N2">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O2">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P2">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q2">
-        <v>62.15485762774667</v>
+        <v>76.58140406485155</v>
       </c>
       <c r="R2">
-        <v>559.39371864972</v>
+        <v>689.232636583664</v>
       </c>
       <c r="S2">
-        <v>0.001374363943706056</v>
+        <v>0.001439305567536175</v>
       </c>
       <c r="T2">
-        <v>0.001408205097324041</v>
+        <v>0.00145537507505707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P3">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q3">
-        <v>122.186665872103</v>
+        <v>144.3670762628244</v>
       </c>
       <c r="R3">
-        <v>1099.679992848927</v>
+        <v>1299.303686365419</v>
       </c>
       <c r="S3">
-        <v>0.00270178316523586</v>
+        <v>0.002713300169556057</v>
       </c>
       <c r="T3">
-        <v>0.002768309546079848</v>
+        <v>0.002743593526619745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N4">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O4">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P4">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q4">
-        <v>202.5511550524793</v>
+        <v>324.1536672525619</v>
       </c>
       <c r="R4">
-        <v>1822.960395472314</v>
+        <v>2917.383005273057</v>
       </c>
       <c r="S4">
-        <v>0.004478797231382774</v>
+        <v>0.006092290729206093</v>
       </c>
       <c r="T4">
-        <v>0.004589079275542285</v>
+        <v>0.006160309719683595</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N5">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O5">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P5">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q5">
-        <v>37.1216049536315</v>
+        <v>14.35818079124817</v>
       </c>
       <c r="R5">
-        <v>222.729629721789</v>
+        <v>86.149084747489</v>
       </c>
       <c r="S5">
-        <v>0.000820830379603282</v>
+        <v>0.0002698541480779588</v>
       </c>
       <c r="T5">
-        <v>0.0005606945331034718</v>
+        <v>0.0001819113373707098</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N6">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O6">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P6">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q6">
-        <v>182.3766193878983</v>
+        <v>413.9639785418317</v>
       </c>
       <c r="R6">
-        <v>1641.389574491085</v>
+        <v>3725.675806876485</v>
       </c>
       <c r="S6">
-        <v>0.004032699284147926</v>
+        <v>0.007780226366313736</v>
       </c>
       <c r="T6">
-        <v>0.004131996996806181</v>
+        <v>0.007867090760454699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N7">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O7">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P7">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q7">
-        <v>3666.371166670182</v>
+        <v>3823.317199471571</v>
       </c>
       <c r="R7">
-        <v>32997.34050003163</v>
+        <v>34409.85479524414</v>
       </c>
       <c r="S7">
-        <v>0.08107054746861114</v>
+        <v>0.07185715382021725</v>
       </c>
       <c r="T7">
-        <v>0.08306675878028263</v>
+        <v>0.07265942201106483</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>14.827407</v>
       </c>
       <c r="O8">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P8">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q8">
         <v>7207.508564946944</v>
@@ -948,10 +948,10 @@
         <v>64867.5770845225</v>
       </c>
       <c r="S8">
-        <v>0.1593719344502789</v>
+        <v>0.1354611779748505</v>
       </c>
       <c r="T8">
-        <v>0.1632961716516594</v>
+        <v>0.1369735701084977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N9">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O9">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P9">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q9">
-        <v>11948.02374269511</v>
+        <v>16183.33205576892</v>
       </c>
       <c r="R9">
-        <v>107532.213684256</v>
+        <v>145649.9885019203</v>
       </c>
       <c r="S9">
-        <v>0.2641938805306432</v>
+        <v>0.3041568669781741</v>
       </c>
       <c r="T9">
-        <v>0.2706991630192541</v>
+        <v>0.3075527067301209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N10">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O10">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P10">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q10">
-        <v>2189.717541911932</v>
+        <v>716.8304138928281</v>
       </c>
       <c r="R10">
-        <v>13138.30525147159</v>
+        <v>4300.982483356969</v>
       </c>
       <c r="S10">
-        <v>0.0484188839193954</v>
+        <v>0.0134724352248948</v>
       </c>
       <c r="T10">
-        <v>0.03307407253335053</v>
+        <v>0.009081901193132144</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N11">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O11">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P11">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q11">
-        <v>10757.97458668901</v>
+        <v>20667.10082489963</v>
       </c>
       <c r="R11">
-        <v>96821.77128020114</v>
+        <v>186003.9074240967</v>
       </c>
       <c r="S11">
-        <v>0.2378795953134172</v>
+        <v>0.3884268465085783</v>
       </c>
       <c r="T11">
-        <v>0.2437369375148416</v>
+        <v>0.392763540725618</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N12">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O12">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P12">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q12">
-        <v>151.1012893569334</v>
+        <v>152.0276170767218</v>
       </c>
       <c r="R12">
-        <v>1359.9116042124</v>
+        <v>1368.248553690496</v>
       </c>
       <c r="S12">
-        <v>0.003341141334172395</v>
+        <v>0.002857275840652967</v>
       </c>
       <c r="T12">
-        <v>0.003423410719706648</v>
+        <v>0.002889176652159757</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>14.827407</v>
       </c>
       <c r="O13">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P13">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q13">
-        <v>297.0413489815101</v>
+        <v>286.5941524130906</v>
       </c>
       <c r="R13">
-        <v>2673.37214083359</v>
+        <v>2579.347371717816</v>
       </c>
       <c r="S13">
-        <v>0.006568157910923288</v>
+        <v>0.005386380208466239</v>
       </c>
       <c r="T13">
-        <v>0.006729886572293265</v>
+        <v>0.005446517874311942</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N14">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O14">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P14">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q14">
-        <v>492.4110818894866</v>
+        <v>643.5022992965163</v>
       </c>
       <c r="R14">
-        <v>4431.69973700538</v>
+        <v>5791.520693668646</v>
       </c>
       <c r="S14">
-        <v>0.0108881600289933</v>
+        <v>0.01209427345201811</v>
       </c>
       <c r="T14">
-        <v>0.01115626070046812</v>
+        <v>0.01222930316536081</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N15">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O15">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P15">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q15">
-        <v>90.24431211935502</v>
+        <v>28.50352560004933</v>
       </c>
       <c r="R15">
-        <v>541.4658727161301</v>
+        <v>171.021153600296</v>
       </c>
       <c r="S15">
-        <v>0.001995476032528617</v>
+        <v>0.0005357081603755839</v>
       </c>
       <c r="T15">
-        <v>0.001363073943387131</v>
+        <v>0.0003611261438389013</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N16">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O16">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P16">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q16">
-        <v>443.3658669627167</v>
+        <v>821.7916344288933</v>
       </c>
       <c r="R16">
-        <v>3990.29280266445</v>
+        <v>7396.124709860039</v>
       </c>
       <c r="S16">
-        <v>0.00980367560445532</v>
+        <v>0.01544512390745041</v>
       </c>
       <c r="T16">
-        <v>0.0100450728658362</v>
+        <v>0.01561756507657393</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N17">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O17">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P17">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q17">
-        <v>51.47026207528</v>
+        <v>77.29343003677333</v>
       </c>
       <c r="R17">
-        <v>308.82157245168</v>
+        <v>463.76058022064</v>
       </c>
       <c r="S17">
-        <v>0.001138106900558443</v>
+        <v>0.001452687705904251</v>
       </c>
       <c r="T17">
-        <v>0.0007774204428677118</v>
+        <v>0.0009792710812312128</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H18">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I18">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J18">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>14.827407</v>
       </c>
       <c r="O18">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P18">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q18">
-        <v>101.182432951698</v>
+        <v>145.709348698865</v>
       </c>
       <c r="R18">
-        <v>607.0945977101881</v>
+        <v>874.2560921931901</v>
       </c>
       <c r="S18">
-        <v>0.002237339009255337</v>
+        <v>0.002738527445210439</v>
       </c>
       <c r="T18">
-        <v>0.001528286211573826</v>
+        <v>0.001846068305908371</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N19">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O19">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P19">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q19">
-        <v>167.732039491436</v>
+        <v>327.1675298579283</v>
       </c>
       <c r="R19">
-        <v>1006.392236948616</v>
+        <v>1963.00517914757</v>
       </c>
       <c r="S19">
-        <v>0.003708879339117026</v>
+        <v>0.006148934627038256</v>
       </c>
       <c r="T19">
-        <v>0.002533469058964905</v>
+        <v>0.004145057355525444</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N20">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O20">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P20">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q20">
-        <v>30.740296230129</v>
+        <v>14.4916779209725</v>
       </c>
       <c r="R20">
-        <v>122.961184920516</v>
+        <v>57.96671168389</v>
       </c>
       <c r="S20">
-        <v>0.0006797273193120843</v>
+        <v>0.0002723631535527032</v>
       </c>
       <c r="T20">
-        <v>0.0003095397063021014</v>
+        <v>0.0001224017884381079</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N21">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O21">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P21">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q21">
-        <v>151.02556348079</v>
+        <v>417.812864674975</v>
       </c>
       <c r="R21">
-        <v>906.15338088474</v>
+        <v>2506.87718804985</v>
       </c>
       <c r="S21">
-        <v>0.003339466888799191</v>
+        <v>0.007852564074245477</v>
       </c>
       <c r="T21">
-        <v>0.002281130029488834</v>
+        <v>0.005293490734567141</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H22">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I22">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J22">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N22">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O22">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P22">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q22">
-        <v>704.3932048652401</v>
+        <v>56.70548856625599</v>
       </c>
       <c r="R22">
-        <v>6339.53884378716</v>
+        <v>510.349397096304</v>
       </c>
       <c r="S22">
-        <v>0.01557549417547328</v>
+        <v>0.001065748616128214</v>
       </c>
       <c r="T22">
-        <v>0.01595901172443261</v>
+        <v>0.001077647448307105</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H23">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I23">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J23">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>14.827407</v>
       </c>
       <c r="O23">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P23">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q23">
-        <v>1384.726157381259</v>
+        <v>106.898086974651</v>
       </c>
       <c r="R23">
-        <v>12462.53541643133</v>
+        <v>962.082782771859</v>
       </c>
       <c r="S23">
-        <v>0.03061896970321215</v>
+        <v>0.002009091026997739</v>
       </c>
       <c r="T23">
-        <v>0.03137290483232848</v>
+        <v>0.002031522054916133</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H24">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I24">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J24">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N24">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O24">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P24">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q24">
-        <v>2295.486832438338</v>
+        <v>240.022918051153</v>
       </c>
       <c r="R24">
-        <v>20659.38149194504</v>
+        <v>2160.206262460377</v>
       </c>
       <c r="S24">
-        <v>0.05075764720836431</v>
+        <v>0.004511099352458355</v>
       </c>
       <c r="T24">
-        <v>0.05200745978117808</v>
+        <v>0.004561464713787379</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H25">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I25">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J25">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N25">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O25">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P25">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q25">
-        <v>420.6944924503696</v>
+        <v>10.6316626945215</v>
       </c>
       <c r="R25">
-        <v>2524.166954702217</v>
+        <v>63.789976167129</v>
       </c>
       <c r="S25">
-        <v>0.009302367728075975</v>
+        <v>0.0001998162804044837</v>
       </c>
       <c r="T25">
-        <v>0.00635428081081894</v>
+        <v>0.0001346981213952637</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H26">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I26">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J26">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N26">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O26">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P26">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q26">
-        <v>2066.851350420945</v>
+        <v>306.523887080565</v>
       </c>
       <c r="R26">
-        <v>18601.6621537885</v>
+        <v>2758.714983725085</v>
       </c>
       <c r="S26">
-        <v>0.04570207513033763</v>
+        <v>0.005760948661691818</v>
       </c>
       <c r="T26">
-        <v>0.0468274036521089</v>
+        <v>0.005825268296058981</v>
       </c>
     </row>
   </sheetData>
